--- a/amazon_forecasts.xlsx
+++ b/amazon_forecasts.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://gigabyte365-my.sharepoint.com/personal/charleshsu_gigabyteusa_com/Documents/Documents/GitHub/Forecast Model/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="14" documentId="11_F25DC773A252ABDACC104884C91A59425BDE58E8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CFDF27B7-0A71-4A87-9785-0A1E60ED3229}"/>
+  <xr:revisionPtr revIDLastSave="18" documentId="11_F25DC773A252ABDACC104884C91A59425BDE58E8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BBD88F46-156A-4611-A36D-9FA910FFCD17}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -186,12 +186,6 @@
     <t>GIGABYTE</t>
   </si>
   <si>
-    <t>B0BH7GTY9C</t>
-  </si>
-  <si>
-    <t>B650 AORUS Elite AX</t>
-  </si>
-  <si>
     <t>P80 Forecast</t>
   </si>
   <si>
@@ -199,6 +193,12 @@
   </si>
   <si>
     <t>Mean Forecast</t>
+  </si>
+  <si>
+    <t>B091HTG6DQ</t>
+  </si>
+  <si>
+    <t>GC-WBAX210</t>
   </si>
 </sst>
 </file>
@@ -291,6 +291,10 @@
   </cellStyleXfs>
   <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -300,10 +304,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -587,7 +587,7 @@
   <dimension ref="A1:AY15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -634,62 +634,62 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:51" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2"/>
-      <c r="P1" s="2"/>
-      <c r="Q1" s="2"/>
-      <c r="R1" s="2"/>
-      <c r="S1" s="2"/>
-      <c r="T1" s="2"/>
-      <c r="U1" s="2"/>
-      <c r="V1" s="2"/>
-      <c r="W1" s="2"/>
-      <c r="X1" s="2"/>
-      <c r="Y1" s="2"/>
-      <c r="Z1" s="2"/>
-      <c r="AA1" s="2"/>
-      <c r="AB1" s="2"/>
-      <c r="AC1" s="2"/>
-      <c r="AD1" s="2"/>
-      <c r="AE1" s="2"/>
-      <c r="AF1" s="2"/>
-      <c r="AG1" s="2"/>
-      <c r="AH1" s="2"/>
-      <c r="AI1" s="2"/>
-      <c r="AJ1" s="2"/>
-      <c r="AK1" s="2"/>
-      <c r="AL1" s="2"/>
-      <c r="AM1" s="2"/>
-      <c r="AN1" s="2"/>
-      <c r="AO1" s="2"/>
-      <c r="AP1" s="2"/>
-      <c r="AQ1" s="2"/>
-      <c r="AR1" s="2"/>
-      <c r="AS1" s="2"/>
-      <c r="AT1" s="2"/>
-      <c r="AU1" s="2"/>
-      <c r="AV1" s="2"/>
-      <c r="AW1" s="2"/>
-      <c r="AX1" s="2"/>
-      <c r="AY1" s="3"/>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
+      <c r="J1" s="6"/>
+      <c r="K1" s="6"/>
+      <c r="L1" s="6"/>
+      <c r="M1" s="6"/>
+      <c r="N1" s="6"/>
+      <c r="O1" s="6"/>
+      <c r="P1" s="6"/>
+      <c r="Q1" s="6"/>
+      <c r="R1" s="6"/>
+      <c r="S1" s="6"/>
+      <c r="T1" s="6"/>
+      <c r="U1" s="6"/>
+      <c r="V1" s="6"/>
+      <c r="W1" s="6"/>
+      <c r="X1" s="6"/>
+      <c r="Y1" s="6"/>
+      <c r="Z1" s="6"/>
+      <c r="AA1" s="6"/>
+      <c r="AB1" s="6"/>
+      <c r="AC1" s="6"/>
+      <c r="AD1" s="6"/>
+      <c r="AE1" s="6"/>
+      <c r="AF1" s="6"/>
+      <c r="AG1" s="6"/>
+      <c r="AH1" s="6"/>
+      <c r="AI1" s="6"/>
+      <c r="AJ1" s="6"/>
+      <c r="AK1" s="6"/>
+      <c r="AL1" s="6"/>
+      <c r="AM1" s="6"/>
+      <c r="AN1" s="6"/>
+      <c r="AO1" s="6"/>
+      <c r="AP1" s="6"/>
+      <c r="AQ1" s="6"/>
+      <c r="AR1" s="6"/>
+      <c r="AS1" s="6"/>
+      <c r="AT1" s="6"/>
+      <c r="AU1" s="6"/>
+      <c r="AV1" s="6"/>
+      <c r="AW1" s="6"/>
+      <c r="AX1" s="6"/>
+      <c r="AY1" s="7"/>
     </row>
     <row r="2" spans="1:51" x14ac:dyDescent="0.3">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B2" t="s">
@@ -839,223 +839,223 @@
       <c r="AX2" t="s">
         <v>50</v>
       </c>
-      <c r="AY2" s="5" t="s">
+      <c r="AY2" s="2" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:51" x14ac:dyDescent="0.3">
-      <c r="A3" s="4" t="s">
-        <v>53</v>
+      <c r="A3" s="1" t="s">
+        <v>56</v>
       </c>
       <c r="B3" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="C3" t="s">
         <v>52</v>
       </c>
-      <c r="D3" s="6">
-        <v>504</v>
-      </c>
-      <c r="E3" s="6">
-        <v>1179</v>
-      </c>
-      <c r="F3" s="6">
-        <v>1179</v>
-      </c>
-      <c r="G3" s="6">
-        <v>1049</v>
-      </c>
-      <c r="H3" s="6">
-        <v>688</v>
-      </c>
-      <c r="I3" s="6">
-        <v>670</v>
-      </c>
-      <c r="J3" s="6">
+      <c r="D3" s="3">
+        <v>720</v>
+      </c>
+      <c r="E3" s="3">
+        <v>886</v>
+      </c>
+      <c r="F3" s="3">
+        <v>1242</v>
+      </c>
+      <c r="G3" s="3">
+        <v>970</v>
+      </c>
+      <c r="H3" s="3">
+        <v>854</v>
+      </c>
+      <c r="I3" s="3">
+        <v>862</v>
+      </c>
+      <c r="J3" s="3">
+        <v>741</v>
+      </c>
+      <c r="K3" s="3">
+        <v>666</v>
+      </c>
+      <c r="L3" s="3">
+        <v>634</v>
+      </c>
+      <c r="M3" s="3">
+        <v>647</v>
+      </c>
+      <c r="N3" s="3">
+        <v>645</v>
+      </c>
+      <c r="O3" s="3">
+        <v>641</v>
+      </c>
+      <c r="P3" s="3">
+        <v>645</v>
+      </c>
+      <c r="Q3" s="3">
+        <v>626</v>
+      </c>
+      <c r="R3" s="3">
+        <v>625</v>
+      </c>
+      <c r="S3" s="3">
+        <v>607</v>
+      </c>
+      <c r="T3" s="3">
+        <v>613</v>
+      </c>
+      <c r="U3" s="3">
+        <v>614</v>
+      </c>
+      <c r="V3" s="3">
+        <v>642</v>
+      </c>
+      <c r="W3" s="3">
+        <v>608</v>
+      </c>
+      <c r="X3" s="3">
+        <v>626</v>
+      </c>
+      <c r="Y3" s="3">
+        <v>610</v>
+      </c>
+      <c r="Z3" s="3">
+        <v>601</v>
+      </c>
+      <c r="AA3" s="3">
+        <v>598</v>
+      </c>
+      <c r="AB3" s="3">
+        <v>609</v>
+      </c>
+      <c r="AC3" s="3">
+        <v>595</v>
+      </c>
+      <c r="AD3" s="3">
+        <v>590</v>
+      </c>
+      <c r="AE3" s="3">
+        <v>583</v>
+      </c>
+      <c r="AF3" s="3">
+        <v>566</v>
+      </c>
+      <c r="AG3" s="3">
+        <v>586</v>
+      </c>
+      <c r="AH3" s="3">
+        <v>587</v>
+      </c>
+      <c r="AI3" s="3">
+        <v>589</v>
+      </c>
+      <c r="AJ3" s="3">
+        <v>584</v>
+      </c>
+      <c r="AK3" s="3">
+        <v>559</v>
+      </c>
+      <c r="AL3" s="3">
+        <v>743</v>
+      </c>
+      <c r="AM3" s="3">
+        <v>757</v>
+      </c>
+      <c r="AN3" s="3">
+        <v>558</v>
+      </c>
+      <c r="AO3" s="3">
+        <v>581</v>
+      </c>
+      <c r="AP3" s="3">
+        <v>578</v>
+      </c>
+      <c r="AQ3" s="3">
+        <v>599</v>
+      </c>
+      <c r="AR3" s="3">
+        <v>581</v>
+      </c>
+      <c r="AS3" s="3">
+        <v>584</v>
+      </c>
+      <c r="AT3" s="3">
         <v>564</v>
       </c>
-      <c r="K3" s="6">
-        <v>513</v>
-      </c>
-      <c r="L3" s="6">
-        <v>489</v>
-      </c>
-      <c r="M3" s="6">
-        <v>502</v>
-      </c>
-      <c r="N3" s="6">
-        <v>508</v>
-      </c>
-      <c r="O3" s="6">
-        <v>514</v>
-      </c>
-      <c r="P3" s="6">
-        <v>515</v>
-      </c>
-      <c r="Q3" s="6">
-        <v>461</v>
-      </c>
-      <c r="R3" s="6">
-        <v>458</v>
-      </c>
-      <c r="S3" s="6">
-        <v>445</v>
-      </c>
-      <c r="T3" s="6">
-        <v>449</v>
-      </c>
-      <c r="U3" s="6">
-        <v>444</v>
-      </c>
-      <c r="V3" s="6">
-        <v>459</v>
-      </c>
-      <c r="W3" s="6">
-        <v>429</v>
-      </c>
-      <c r="X3" s="6">
-        <v>423</v>
-      </c>
-      <c r="Y3" s="6">
-        <v>426</v>
-      </c>
-      <c r="Z3" s="6">
-        <v>412</v>
-      </c>
-      <c r="AA3" s="6">
-        <v>413</v>
-      </c>
-      <c r="AB3" s="6">
-        <v>430</v>
-      </c>
-      <c r="AC3" s="6">
-        <v>392</v>
-      </c>
-      <c r="AD3" s="6">
-        <v>398</v>
-      </c>
-      <c r="AE3" s="6">
-        <v>382</v>
-      </c>
-      <c r="AF3" s="6">
-        <v>360</v>
-      </c>
-      <c r="AG3" s="6">
-        <v>392</v>
-      </c>
-      <c r="AH3" s="6">
-        <v>374</v>
-      </c>
-      <c r="AI3" s="6">
-        <v>382</v>
-      </c>
-      <c r="AJ3" s="6">
-        <v>383</v>
-      </c>
-      <c r="AK3" s="6">
-        <v>416</v>
-      </c>
-      <c r="AL3" s="6">
-        <v>658</v>
-      </c>
-      <c r="AM3" s="6">
-        <v>739</v>
-      </c>
-      <c r="AN3" s="6">
-        <v>406</v>
-      </c>
-      <c r="AO3" s="6">
-        <v>381</v>
-      </c>
-      <c r="AP3" s="6">
-        <v>383</v>
-      </c>
-      <c r="AQ3" s="6">
-        <v>387</v>
-      </c>
-      <c r="AR3" s="6">
-        <v>378</v>
-      </c>
-      <c r="AS3" s="6">
-        <v>392</v>
-      </c>
-      <c r="AT3" s="6">
-        <v>381</v>
-      </c>
-      <c r="AU3" s="6">
-        <v>369</v>
-      </c>
-      <c r="AV3" s="6">
-        <v>350</v>
-      </c>
-      <c r="AW3" s="6">
-        <v>366</v>
-      </c>
-      <c r="AX3" s="6">
-        <v>348</v>
-      </c>
-      <c r="AY3" s="7">
-        <v>350</v>
+      <c r="AU3" s="3">
+        <v>578</v>
+      </c>
+      <c r="AV3" s="3">
+        <v>569</v>
+      </c>
+      <c r="AW3" s="3">
+        <v>567</v>
+      </c>
+      <c r="AX3" s="3">
+        <v>541</v>
+      </c>
+      <c r="AY3" s="4">
+        <v>539</v>
       </c>
     </row>
     <row r="4" spans="1:51" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="5" spans="1:51" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
-      <c r="J5" s="2"/>
-      <c r="K5" s="2"/>
-      <c r="L5" s="2"/>
-      <c r="M5" s="2"/>
-      <c r="N5" s="2"/>
-      <c r="O5" s="2"/>
-      <c r="P5" s="2"/>
-      <c r="Q5" s="2"/>
-      <c r="R5" s="2"/>
-      <c r="S5" s="2"/>
-      <c r="T5" s="2"/>
-      <c r="U5" s="2"/>
-      <c r="V5" s="2"/>
-      <c r="W5" s="2"/>
-      <c r="X5" s="2"/>
-      <c r="Y5" s="2"/>
-      <c r="Z5" s="2"/>
-      <c r="AA5" s="2"/>
-      <c r="AB5" s="2"/>
-      <c r="AC5" s="2"/>
-      <c r="AD5" s="2"/>
-      <c r="AE5" s="2"/>
-      <c r="AF5" s="2"/>
-      <c r="AG5" s="2"/>
-      <c r="AH5" s="2"/>
-      <c r="AI5" s="2"/>
-      <c r="AJ5" s="2"/>
-      <c r="AK5" s="2"/>
-      <c r="AL5" s="2"/>
-      <c r="AM5" s="2"/>
-      <c r="AN5" s="2"/>
-      <c r="AO5" s="2"/>
-      <c r="AP5" s="2"/>
-      <c r="AQ5" s="2"/>
-      <c r="AR5" s="2"/>
-      <c r="AS5" s="2"/>
-      <c r="AT5" s="2"/>
-      <c r="AU5" s="2"/>
-      <c r="AV5" s="2"/>
-      <c r="AW5" s="2"/>
-      <c r="AX5" s="2"/>
-      <c r="AY5" s="3"/>
+      <c r="A5" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="B5" s="6"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="6"/>
+      <c r="I5" s="6"/>
+      <c r="J5" s="6"/>
+      <c r="K5" s="6"/>
+      <c r="L5" s="6"/>
+      <c r="M5" s="6"/>
+      <c r="N5" s="6"/>
+      <c r="O5" s="6"/>
+      <c r="P5" s="6"/>
+      <c r="Q5" s="6"/>
+      <c r="R5" s="6"/>
+      <c r="S5" s="6"/>
+      <c r="T5" s="6"/>
+      <c r="U5" s="6"/>
+      <c r="V5" s="6"/>
+      <c r="W5" s="6"/>
+      <c r="X5" s="6"/>
+      <c r="Y5" s="6"/>
+      <c r="Z5" s="6"/>
+      <c r="AA5" s="6"/>
+      <c r="AB5" s="6"/>
+      <c r="AC5" s="6"/>
+      <c r="AD5" s="6"/>
+      <c r="AE5" s="6"/>
+      <c r="AF5" s="6"/>
+      <c r="AG5" s="6"/>
+      <c r="AH5" s="6"/>
+      <c r="AI5" s="6"/>
+      <c r="AJ5" s="6"/>
+      <c r="AK5" s="6"/>
+      <c r="AL5" s="6"/>
+      <c r="AM5" s="6"/>
+      <c r="AN5" s="6"/>
+      <c r="AO5" s="6"/>
+      <c r="AP5" s="6"/>
+      <c r="AQ5" s="6"/>
+      <c r="AR5" s="6"/>
+      <c r="AS5" s="6"/>
+      <c r="AT5" s="6"/>
+      <c r="AU5" s="6"/>
+      <c r="AV5" s="6"/>
+      <c r="AW5" s="6"/>
+      <c r="AX5" s="6"/>
+      <c r="AY5" s="7"/>
     </row>
     <row r="6" spans="1:51" x14ac:dyDescent="0.3">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B6" t="s">
@@ -1205,223 +1205,223 @@
       <c r="AX6" t="s">
         <v>50</v>
       </c>
-      <c r="AY6" s="5" t="s">
+      <c r="AY6" s="2" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="7" spans="1:51" x14ac:dyDescent="0.3">
-      <c r="A7" s="4" t="s">
-        <v>53</v>
+      <c r="A7" s="1" t="s">
+        <v>56</v>
       </c>
       <c r="B7" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="C7" t="s">
         <v>52</v>
       </c>
-      <c r="D7" s="6">
-        <v>578</v>
-      </c>
-      <c r="E7" s="6">
-        <v>1460</v>
-      </c>
-      <c r="F7" s="6">
-        <v>1460</v>
-      </c>
-      <c r="G7" s="6">
-        <v>1302</v>
-      </c>
-      <c r="H7" s="6">
-        <v>820</v>
-      </c>
-      <c r="I7" s="6">
-        <v>811</v>
-      </c>
-      <c r="J7" s="6">
+      <c r="D7" s="3">
+        <v>765</v>
+      </c>
+      <c r="E7" s="3">
+        <v>968</v>
+      </c>
+      <c r="F7" s="3">
+        <v>1413</v>
+      </c>
+      <c r="G7" s="3">
+        <v>1070</v>
+      </c>
+      <c r="H7" s="3">
+        <v>929</v>
+      </c>
+      <c r="I7" s="3">
+        <v>949</v>
+      </c>
+      <c r="J7" s="3">
+        <v>813</v>
+      </c>
+      <c r="K7" s="3">
+        <v>720</v>
+      </c>
+      <c r="L7" s="3">
+        <v>691</v>
+      </c>
+      <c r="M7" s="3">
+        <v>701</v>
+      </c>
+      <c r="N7" s="3">
+        <v>701</v>
+      </c>
+      <c r="O7" s="3">
+        <v>698</v>
+      </c>
+      <c r="P7" s="3">
+        <v>705</v>
+      </c>
+      <c r="Q7" s="3">
+        <v>686</v>
+      </c>
+      <c r="R7" s="3">
         <v>687</v>
       </c>
-      <c r="K7" s="6">
-        <v>623</v>
-      </c>
-      <c r="L7" s="6">
-        <v>586</v>
-      </c>
-      <c r="M7" s="6">
-        <v>607</v>
-      </c>
-      <c r="N7" s="6">
-        <v>620</v>
-      </c>
-      <c r="O7" s="6">
-        <v>632</v>
-      </c>
-      <c r="P7" s="6">
-        <v>630</v>
-      </c>
-      <c r="Q7" s="6">
-        <v>566</v>
-      </c>
-      <c r="R7" s="6">
-        <v>569</v>
-      </c>
-      <c r="S7" s="6">
-        <v>551</v>
-      </c>
-      <c r="T7" s="6">
-        <v>555</v>
-      </c>
-      <c r="U7" s="6">
-        <v>542</v>
-      </c>
-      <c r="V7" s="6">
-        <v>566</v>
-      </c>
-      <c r="W7" s="6">
-        <v>537</v>
-      </c>
-      <c r="X7" s="6">
-        <v>532</v>
-      </c>
-      <c r="Y7" s="6">
-        <v>537</v>
-      </c>
-      <c r="Z7" s="6">
-        <v>516</v>
-      </c>
-      <c r="AA7" s="6">
-        <v>521</v>
-      </c>
-      <c r="AB7" s="6">
-        <v>541</v>
-      </c>
-      <c r="AC7" s="6">
-        <v>494</v>
-      </c>
-      <c r="AD7" s="6">
-        <v>502</v>
-      </c>
-      <c r="AE7" s="6">
-        <v>478</v>
-      </c>
-      <c r="AF7" s="6">
-        <v>450</v>
-      </c>
-      <c r="AG7" s="6">
-        <v>488</v>
-      </c>
-      <c r="AH7" s="6">
-        <v>467</v>
-      </c>
-      <c r="AI7" s="6">
-        <v>481</v>
-      </c>
-      <c r="AJ7" s="6">
-        <v>480</v>
-      </c>
-      <c r="AK7" s="6">
-        <v>530</v>
-      </c>
-      <c r="AL7" s="6">
+      <c r="S7" s="3">
+        <v>665</v>
+      </c>
+      <c r="T7" s="3">
+        <v>673</v>
+      </c>
+      <c r="U7" s="3">
+        <v>670</v>
+      </c>
+      <c r="V7" s="3">
+        <v>703</v>
+      </c>
+      <c r="W7" s="3">
+        <v>670</v>
+      </c>
+      <c r="X7" s="3">
+        <v>692</v>
+      </c>
+      <c r="Y7" s="3">
+        <v>674</v>
+      </c>
+      <c r="Z7" s="3">
+        <v>663</v>
+      </c>
+      <c r="AA7" s="3">
+        <v>659</v>
+      </c>
+      <c r="AB7" s="3">
+        <v>673</v>
+      </c>
+      <c r="AC7" s="3">
+        <v>659</v>
+      </c>
+      <c r="AD7" s="3">
+        <v>652</v>
+      </c>
+      <c r="AE7" s="3">
+        <v>646</v>
+      </c>
+      <c r="AF7" s="3">
+        <v>626</v>
+      </c>
+      <c r="AG7" s="3">
+        <v>648</v>
+      </c>
+      <c r="AH7" s="3">
+        <v>647</v>
+      </c>
+      <c r="AI7" s="3">
+        <v>654</v>
+      </c>
+      <c r="AJ7" s="3">
+        <v>646</v>
+      </c>
+      <c r="AK7" s="3">
+        <v>619</v>
+      </c>
+      <c r="AL7" s="3">
+        <v>858</v>
+      </c>
+      <c r="AM7" s="3">
         <v>869</v>
       </c>
-      <c r="AM7" s="6">
-        <v>962</v>
-      </c>
-      <c r="AN7" s="6">
-        <v>513</v>
-      </c>
-      <c r="AO7" s="6">
-        <v>479</v>
-      </c>
-      <c r="AP7" s="6">
-        <v>479</v>
-      </c>
-      <c r="AQ7" s="6">
-        <v>486</v>
-      </c>
-      <c r="AR7" s="6">
-        <v>474</v>
-      </c>
-      <c r="AS7" s="6">
-        <v>497</v>
-      </c>
-      <c r="AT7" s="6">
-        <v>482</v>
-      </c>
-      <c r="AU7" s="6">
-        <v>469</v>
-      </c>
-      <c r="AV7" s="6">
-        <v>442</v>
-      </c>
-      <c r="AW7" s="6">
-        <v>462</v>
-      </c>
-      <c r="AX7" s="6">
-        <v>437</v>
-      </c>
-      <c r="AY7" s="7">
-        <v>443</v>
+      <c r="AN7" s="3">
+        <v>616</v>
+      </c>
+      <c r="AO7" s="3">
+        <v>643</v>
+      </c>
+      <c r="AP7" s="3">
+        <v>645</v>
+      </c>
+      <c r="AQ7" s="3">
+        <v>668</v>
+      </c>
+      <c r="AR7" s="3">
+        <v>649</v>
+      </c>
+      <c r="AS7" s="3">
+        <v>654</v>
+      </c>
+      <c r="AT7" s="3">
+        <v>628</v>
+      </c>
+      <c r="AU7" s="3">
+        <v>648</v>
+      </c>
+      <c r="AV7" s="3">
+        <v>638</v>
+      </c>
+      <c r="AW7" s="3">
+        <v>631</v>
+      </c>
+      <c r="AX7" s="3">
+        <v>600</v>
+      </c>
+      <c r="AY7" s="4">
+        <v>605</v>
       </c>
     </row>
     <row r="8" spans="1:51" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="9" spans="1:51" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
-      <c r="I9" s="2"/>
-      <c r="J9" s="2"/>
-      <c r="K9" s="2"/>
-      <c r="L9" s="2"/>
-      <c r="M9" s="2"/>
-      <c r="N9" s="2"/>
-      <c r="O9" s="2"/>
-      <c r="P9" s="2"/>
-      <c r="Q9" s="2"/>
-      <c r="R9" s="2"/>
-      <c r="S9" s="2"/>
-      <c r="T9" s="2"/>
-      <c r="U9" s="2"/>
-      <c r="V9" s="2"/>
-      <c r="W9" s="2"/>
-      <c r="X9" s="2"/>
-      <c r="Y9" s="2"/>
-      <c r="Z9" s="2"/>
-      <c r="AA9" s="2"/>
-      <c r="AB9" s="2"/>
-      <c r="AC9" s="2"/>
-      <c r="AD9" s="2"/>
-      <c r="AE9" s="2"/>
-      <c r="AF9" s="2"/>
-      <c r="AG9" s="2"/>
-      <c r="AH9" s="2"/>
-      <c r="AI9" s="2"/>
-      <c r="AJ9" s="2"/>
-      <c r="AK9" s="2"/>
-      <c r="AL9" s="2"/>
-      <c r="AM9" s="2"/>
-      <c r="AN9" s="2"/>
-      <c r="AO9" s="2"/>
-      <c r="AP9" s="2"/>
-      <c r="AQ9" s="2"/>
-      <c r="AR9" s="2"/>
-      <c r="AS9" s="2"/>
-      <c r="AT9" s="2"/>
-      <c r="AU9" s="2"/>
-      <c r="AV9" s="2"/>
-      <c r="AW9" s="2"/>
-      <c r="AX9" s="2"/>
-      <c r="AY9" s="3"/>
+      <c r="A9" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="B9" s="6"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="6"/>
+      <c r="J9" s="6"/>
+      <c r="K9" s="6"/>
+      <c r="L9" s="6"/>
+      <c r="M9" s="6"/>
+      <c r="N9" s="6"/>
+      <c r="O9" s="6"/>
+      <c r="P9" s="6"/>
+      <c r="Q9" s="6"/>
+      <c r="R9" s="6"/>
+      <c r="S9" s="6"/>
+      <c r="T9" s="6"/>
+      <c r="U9" s="6"/>
+      <c r="V9" s="6"/>
+      <c r="W9" s="6"/>
+      <c r="X9" s="6"/>
+      <c r="Y9" s="6"/>
+      <c r="Z9" s="6"/>
+      <c r="AA9" s="6"/>
+      <c r="AB9" s="6"/>
+      <c r="AC9" s="6"/>
+      <c r="AD9" s="6"/>
+      <c r="AE9" s="6"/>
+      <c r="AF9" s="6"/>
+      <c r="AG9" s="6"/>
+      <c r="AH9" s="6"/>
+      <c r="AI9" s="6"/>
+      <c r="AJ9" s="6"/>
+      <c r="AK9" s="6"/>
+      <c r="AL9" s="6"/>
+      <c r="AM9" s="6"/>
+      <c r="AN9" s="6"/>
+      <c r="AO9" s="6"/>
+      <c r="AP9" s="6"/>
+      <c r="AQ9" s="6"/>
+      <c r="AR9" s="6"/>
+      <c r="AS9" s="6"/>
+      <c r="AT9" s="6"/>
+      <c r="AU9" s="6"/>
+      <c r="AV9" s="6"/>
+      <c r="AW9" s="6"/>
+      <c r="AX9" s="6"/>
+      <c r="AY9" s="7"/>
     </row>
     <row r="10" spans="1:51" x14ac:dyDescent="0.3">
-      <c r="A10" s="4" t="s">
+      <c r="A10" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B10" t="s">
@@ -1571,223 +1571,223 @@
       <c r="AX10" t="s">
         <v>50</v>
       </c>
-      <c r="AY10" s="5" t="s">
+      <c r="AY10" s="2" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="11" spans="1:51" x14ac:dyDescent="0.3">
-      <c r="A11" s="4" t="s">
-        <v>53</v>
+      <c r="A11" s="1" t="s">
+        <v>56</v>
       </c>
       <c r="B11" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="C11" t="s">
         <v>52</v>
       </c>
-      <c r="D11" s="6">
+      <c r="D11" s="3">
+        <v>765</v>
+      </c>
+      <c r="E11" s="3">
+        <v>968</v>
+      </c>
+      <c r="F11" s="3">
+        <v>1413</v>
+      </c>
+      <c r="G11" s="3">
+        <v>1070</v>
+      </c>
+      <c r="H11" s="3">
+        <v>929</v>
+      </c>
+      <c r="I11" s="3">
+        <v>949</v>
+      </c>
+      <c r="J11" s="3">
+        <v>813</v>
+      </c>
+      <c r="K11" s="3">
+        <v>720</v>
+      </c>
+      <c r="L11" s="3">
+        <v>691</v>
+      </c>
+      <c r="M11" s="3">
+        <v>701</v>
+      </c>
+      <c r="N11" s="3">
+        <v>701</v>
+      </c>
+      <c r="O11" s="3">
+        <v>698</v>
+      </c>
+      <c r="P11" s="3">
+        <v>705</v>
+      </c>
+      <c r="Q11" s="3">
+        <v>686</v>
+      </c>
+      <c r="R11" s="3">
+        <v>687</v>
+      </c>
+      <c r="S11" s="3">
+        <v>665</v>
+      </c>
+      <c r="T11" s="3">
+        <v>673</v>
+      </c>
+      <c r="U11" s="3">
+        <v>670</v>
+      </c>
+      <c r="V11" s="3">
+        <v>703</v>
+      </c>
+      <c r="W11" s="3">
+        <v>670</v>
+      </c>
+      <c r="X11" s="3">
         <v>692</v>
       </c>
-      <c r="E11" s="6">
-        <v>1916</v>
-      </c>
-      <c r="F11" s="6">
-        <v>1916</v>
-      </c>
-      <c r="G11" s="6">
-        <v>1714</v>
-      </c>
-      <c r="H11" s="6">
-        <v>1029</v>
-      </c>
-      <c r="I11" s="6">
-        <v>1036</v>
-      </c>
-      <c r="J11" s="6">
-        <v>884</v>
-      </c>
-      <c r="K11" s="6">
-        <v>799</v>
-      </c>
-      <c r="L11" s="6">
-        <v>741</v>
-      </c>
-      <c r="M11" s="6">
-        <v>776</v>
-      </c>
-      <c r="N11" s="6">
-        <v>799</v>
-      </c>
-      <c r="O11" s="6">
-        <v>823</v>
-      </c>
-      <c r="P11" s="6">
-        <v>816</v>
-      </c>
-      <c r="Q11" s="6">
-        <v>737</v>
-      </c>
-      <c r="R11" s="6">
-        <v>749</v>
-      </c>
-      <c r="S11" s="6">
-        <v>722</v>
-      </c>
-      <c r="T11" s="6">
-        <v>729</v>
-      </c>
-      <c r="U11" s="6">
-        <v>701</v>
-      </c>
-      <c r="V11" s="6">
-        <v>740</v>
-      </c>
-      <c r="W11" s="6">
-        <v>713</v>
-      </c>
-      <c r="X11" s="6">
-        <v>711</v>
-      </c>
-      <c r="Y11" s="6">
-        <v>719</v>
-      </c>
-      <c r="Z11" s="6">
-        <v>685</v>
-      </c>
-      <c r="AA11" s="6">
-        <v>700</v>
-      </c>
-      <c r="AB11" s="6">
-        <v>722</v>
-      </c>
-      <c r="AC11" s="6">
-        <v>661</v>
-      </c>
-      <c r="AD11" s="6">
+      <c r="Y11" s="3">
         <v>674</v>
       </c>
-      <c r="AE11" s="6">
-        <v>636</v>
-      </c>
-      <c r="AF11" s="6">
-        <v>596</v>
-      </c>
-      <c r="AG11" s="6">
+      <c r="Z11" s="3">
+        <v>663</v>
+      </c>
+      <c r="AA11" s="3">
+        <v>659</v>
+      </c>
+      <c r="AB11" s="3">
+        <v>673</v>
+      </c>
+      <c r="AC11" s="3">
+        <v>659</v>
+      </c>
+      <c r="AD11" s="3">
+        <v>652</v>
+      </c>
+      <c r="AE11" s="3">
+        <v>646</v>
+      </c>
+      <c r="AF11" s="3">
+        <v>626</v>
+      </c>
+      <c r="AG11" s="3">
+        <v>648</v>
+      </c>
+      <c r="AH11" s="3">
+        <v>647</v>
+      </c>
+      <c r="AI11" s="3">
+        <v>654</v>
+      </c>
+      <c r="AJ11" s="3">
+        <v>646</v>
+      </c>
+      <c r="AK11" s="3">
+        <v>619</v>
+      </c>
+      <c r="AL11" s="3">
+        <v>858</v>
+      </c>
+      <c r="AM11" s="3">
+        <v>869</v>
+      </c>
+      <c r="AN11" s="3">
+        <v>616</v>
+      </c>
+      <c r="AO11" s="3">
+        <v>643</v>
+      </c>
+      <c r="AP11" s="3">
         <v>645</v>
       </c>
-      <c r="AH11" s="6">
-        <v>618</v>
-      </c>
-      <c r="AI11" s="6">
-        <v>642</v>
-      </c>
-      <c r="AJ11" s="6">
-        <v>640</v>
-      </c>
-      <c r="AK11" s="6">
-        <v>718</v>
-      </c>
-      <c r="AL11" s="6">
-        <v>1225</v>
-      </c>
-      <c r="AM11" s="6">
-        <v>1335</v>
-      </c>
-      <c r="AN11" s="6">
-        <v>688</v>
-      </c>
-      <c r="AO11" s="6">
-        <v>640</v>
-      </c>
-      <c r="AP11" s="6">
-        <v>635</v>
-      </c>
-      <c r="AQ11" s="6">
+      <c r="AQ11" s="3">
+        <v>668</v>
+      </c>
+      <c r="AR11" s="3">
         <v>649</v>
       </c>
-      <c r="AR11" s="6">
+      <c r="AS11" s="3">
+        <v>654</v>
+      </c>
+      <c r="AT11" s="3">
+        <v>628</v>
+      </c>
+      <c r="AU11" s="3">
+        <v>648</v>
+      </c>
+      <c r="AV11" s="3">
+        <v>638</v>
+      </c>
+      <c r="AW11" s="3">
         <v>631</v>
       </c>
-      <c r="AS11" s="6">
-        <v>670</v>
-      </c>
-      <c r="AT11" s="6">
-        <v>648</v>
-      </c>
-      <c r="AU11" s="6">
-        <v>632</v>
-      </c>
-      <c r="AV11" s="6">
-        <v>594</v>
-      </c>
-      <c r="AW11" s="6">
-        <v>621</v>
-      </c>
-      <c r="AX11" s="6">
-        <v>584</v>
-      </c>
-      <c r="AY11" s="7">
-        <v>596</v>
+      <c r="AX11" s="3">
+        <v>600</v>
+      </c>
+      <c r="AY11" s="4">
+        <v>605</v>
       </c>
     </row>
     <row r="12" spans="1:51" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="13" spans="1:51" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
-      <c r="H13" s="2"/>
-      <c r="I13" s="2"/>
-      <c r="J13" s="2"/>
-      <c r="K13" s="2"/>
-      <c r="L13" s="2"/>
-      <c r="M13" s="2"/>
-      <c r="N13" s="2"/>
-      <c r="O13" s="2"/>
-      <c r="P13" s="2"/>
-      <c r="Q13" s="2"/>
-      <c r="R13" s="2"/>
-      <c r="S13" s="2"/>
-      <c r="T13" s="2"/>
-      <c r="U13" s="2"/>
-      <c r="V13" s="2"/>
-      <c r="W13" s="2"/>
-      <c r="X13" s="2"/>
-      <c r="Y13" s="2"/>
-      <c r="Z13" s="2"/>
-      <c r="AA13" s="2"/>
-      <c r="AB13" s="2"/>
-      <c r="AC13" s="2"/>
-      <c r="AD13" s="2"/>
-      <c r="AE13" s="2"/>
-      <c r="AF13" s="2"/>
-      <c r="AG13" s="2"/>
-      <c r="AH13" s="2"/>
-      <c r="AI13" s="2"/>
-      <c r="AJ13" s="2"/>
-      <c r="AK13" s="2"/>
-      <c r="AL13" s="2"/>
-      <c r="AM13" s="2"/>
-      <c r="AN13" s="2"/>
-      <c r="AO13" s="2"/>
-      <c r="AP13" s="2"/>
-      <c r="AQ13" s="2"/>
-      <c r="AR13" s="2"/>
-      <c r="AS13" s="2"/>
-      <c r="AT13" s="2"/>
-      <c r="AU13" s="2"/>
-      <c r="AV13" s="2"/>
-      <c r="AW13" s="2"/>
-      <c r="AX13" s="2"/>
-      <c r="AY13" s="3"/>
+      <c r="A13" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="B13" s="6"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6"/>
+      <c r="I13" s="6"/>
+      <c r="J13" s="6"/>
+      <c r="K13" s="6"/>
+      <c r="L13" s="6"/>
+      <c r="M13" s="6"/>
+      <c r="N13" s="6"/>
+      <c r="O13" s="6"/>
+      <c r="P13" s="6"/>
+      <c r="Q13" s="6"/>
+      <c r="R13" s="6"/>
+      <c r="S13" s="6"/>
+      <c r="T13" s="6"/>
+      <c r="U13" s="6"/>
+      <c r="V13" s="6"/>
+      <c r="W13" s="6"/>
+      <c r="X13" s="6"/>
+      <c r="Y13" s="6"/>
+      <c r="Z13" s="6"/>
+      <c r="AA13" s="6"/>
+      <c r="AB13" s="6"/>
+      <c r="AC13" s="6"/>
+      <c r="AD13" s="6"/>
+      <c r="AE13" s="6"/>
+      <c r="AF13" s="6"/>
+      <c r="AG13" s="6"/>
+      <c r="AH13" s="6"/>
+      <c r="AI13" s="6"/>
+      <c r="AJ13" s="6"/>
+      <c r="AK13" s="6"/>
+      <c r="AL13" s="6"/>
+      <c r="AM13" s="6"/>
+      <c r="AN13" s="6"/>
+      <c r="AO13" s="6"/>
+      <c r="AP13" s="6"/>
+      <c r="AQ13" s="6"/>
+      <c r="AR13" s="6"/>
+      <c r="AS13" s="6"/>
+      <c r="AT13" s="6"/>
+      <c r="AU13" s="6"/>
+      <c r="AV13" s="6"/>
+      <c r="AW13" s="6"/>
+      <c r="AX13" s="6"/>
+      <c r="AY13" s="7"/>
     </row>
     <row r="14" spans="1:51" x14ac:dyDescent="0.3">
-      <c r="A14" s="4" t="s">
+      <c r="A14" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B14" t="s">
@@ -1937,163 +1937,163 @@
       <c r="AX14" t="s">
         <v>50</v>
       </c>
-      <c r="AY14" s="5" t="s">
+      <c r="AY14" s="2" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="15" spans="1:51" x14ac:dyDescent="0.3">
-      <c r="A15" s="4" t="s">
-        <v>53</v>
+      <c r="A15" s="1" t="s">
+        <v>56</v>
       </c>
       <c r="B15" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="C15" t="s">
         <v>52</v>
       </c>
-      <c r="D15" s="6">
-        <v>426</v>
-      </c>
-      <c r="E15" s="6">
-        <v>965</v>
-      </c>
-      <c r="F15" s="6">
-        <v>965</v>
-      </c>
-      <c r="G15" s="6">
-        <v>859</v>
-      </c>
-      <c r="H15" s="6">
-        <v>569</v>
-      </c>
-      <c r="I15" s="6">
-        <v>551</v>
-      </c>
-      <c r="J15" s="6">
-        <v>463</v>
-      </c>
-      <c r="K15" s="6">
-        <v>422</v>
-      </c>
-      <c r="L15" s="6">
-        <v>403</v>
-      </c>
-      <c r="M15" s="6">
-        <v>413</v>
-      </c>
-      <c r="N15" s="6">
-        <v>417</v>
-      </c>
-      <c r="O15" s="6">
-        <v>421</v>
-      </c>
-      <c r="P15" s="6">
-        <v>422</v>
-      </c>
-      <c r="Q15" s="6">
-        <v>377</v>
-      </c>
-      <c r="R15" s="6">
-        <v>374</v>
-      </c>
-      <c r="S15" s="6">
-        <v>365</v>
-      </c>
-      <c r="T15" s="6">
-        <v>367</v>
-      </c>
-      <c r="U15" s="6">
-        <v>364</v>
-      </c>
-      <c r="V15" s="6">
-        <v>375</v>
-      </c>
-      <c r="W15" s="6">
-        <v>351</v>
-      </c>
-      <c r="X15" s="6">
-        <v>346</v>
-      </c>
-      <c r="Y15" s="6">
-        <v>349</v>
-      </c>
-      <c r="Z15" s="6">
-        <v>337</v>
-      </c>
-      <c r="AA15" s="6">
-        <v>338</v>
-      </c>
-      <c r="AB15" s="6">
-        <v>351</v>
-      </c>
-      <c r="AC15" s="6">
-        <v>321</v>
-      </c>
-      <c r="AD15" s="6">
-        <v>326</v>
-      </c>
-      <c r="AE15" s="6">
-        <v>312</v>
-      </c>
-      <c r="AF15" s="6">
-        <v>295</v>
-      </c>
-      <c r="AG15" s="6">
-        <v>320</v>
-      </c>
-      <c r="AH15" s="6">
-        <v>306</v>
-      </c>
-      <c r="AI15" s="6">
-        <v>313</v>
-      </c>
-      <c r="AJ15" s="6">
-        <v>313</v>
-      </c>
-      <c r="AK15" s="6">
-        <v>341</v>
-      </c>
-      <c r="AL15" s="6">
-        <v>544</v>
-      </c>
-      <c r="AM15" s="6">
-        <v>608</v>
-      </c>
-      <c r="AN15" s="6">
-        <v>332</v>
-      </c>
-      <c r="AO15" s="6">
-        <v>312</v>
-      </c>
-      <c r="AP15" s="6">
-        <v>313</v>
-      </c>
-      <c r="AQ15" s="6">
-        <v>316</v>
-      </c>
-      <c r="AR15" s="6">
-        <v>309</v>
-      </c>
-      <c r="AS15" s="6">
-        <v>321</v>
-      </c>
-      <c r="AT15" s="6">
-        <v>312</v>
-      </c>
-      <c r="AU15" s="6">
-        <v>302</v>
-      </c>
-      <c r="AV15" s="6">
-        <v>287</v>
-      </c>
-      <c r="AW15" s="6">
-        <v>299</v>
-      </c>
-      <c r="AX15" s="6">
-        <v>284</v>
-      </c>
-      <c r="AY15" s="7">
-        <v>287</v>
+      <c r="D15" s="3">
+        <v>765</v>
+      </c>
+      <c r="E15" s="3">
+        <v>968</v>
+      </c>
+      <c r="F15" s="3">
+        <v>1413</v>
+      </c>
+      <c r="G15" s="3">
+        <v>1070</v>
+      </c>
+      <c r="H15" s="3">
+        <v>929</v>
+      </c>
+      <c r="I15" s="3">
+        <v>949</v>
+      </c>
+      <c r="J15" s="3">
+        <v>813</v>
+      </c>
+      <c r="K15" s="3">
+        <v>720</v>
+      </c>
+      <c r="L15" s="3">
+        <v>691</v>
+      </c>
+      <c r="M15" s="3">
+        <v>701</v>
+      </c>
+      <c r="N15" s="3">
+        <v>701</v>
+      </c>
+      <c r="O15" s="3">
+        <v>698</v>
+      </c>
+      <c r="P15" s="3">
+        <v>705</v>
+      </c>
+      <c r="Q15" s="3">
+        <v>686</v>
+      </c>
+      <c r="R15" s="3">
+        <v>687</v>
+      </c>
+      <c r="S15" s="3">
+        <v>665</v>
+      </c>
+      <c r="T15" s="3">
+        <v>673</v>
+      </c>
+      <c r="U15" s="3">
+        <v>670</v>
+      </c>
+      <c r="V15" s="3">
+        <v>703</v>
+      </c>
+      <c r="W15" s="3">
+        <v>670</v>
+      </c>
+      <c r="X15" s="3">
+        <v>692</v>
+      </c>
+      <c r="Y15" s="3">
+        <v>674</v>
+      </c>
+      <c r="Z15" s="3">
+        <v>663</v>
+      </c>
+      <c r="AA15" s="3">
+        <v>659</v>
+      </c>
+      <c r="AB15" s="3">
+        <v>673</v>
+      </c>
+      <c r="AC15" s="3">
+        <v>659</v>
+      </c>
+      <c r="AD15" s="3">
+        <v>652</v>
+      </c>
+      <c r="AE15" s="3">
+        <v>646</v>
+      </c>
+      <c r="AF15" s="3">
+        <v>626</v>
+      </c>
+      <c r="AG15" s="3">
+        <v>648</v>
+      </c>
+      <c r="AH15" s="3">
+        <v>647</v>
+      </c>
+      <c r="AI15" s="3">
+        <v>654</v>
+      </c>
+      <c r="AJ15" s="3">
+        <v>646</v>
+      </c>
+      <c r="AK15" s="3">
+        <v>619</v>
+      </c>
+      <c r="AL15" s="3">
+        <v>858</v>
+      </c>
+      <c r="AM15" s="3">
+        <v>869</v>
+      </c>
+      <c r="AN15" s="3">
+        <v>616</v>
+      </c>
+      <c r="AO15" s="3">
+        <v>643</v>
+      </c>
+      <c r="AP15" s="3">
+        <v>645</v>
+      </c>
+      <c r="AQ15" s="3">
+        <v>668</v>
+      </c>
+      <c r="AR15" s="3">
+        <v>649</v>
+      </c>
+      <c r="AS15" s="3">
+        <v>654</v>
+      </c>
+      <c r="AT15" s="3">
+        <v>628</v>
+      </c>
+      <c r="AU15" s="3">
+        <v>648</v>
+      </c>
+      <c r="AV15" s="3">
+        <v>638</v>
+      </c>
+      <c r="AW15" s="3">
+        <v>631</v>
+      </c>
+      <c r="AX15" s="3">
+        <v>600</v>
+      </c>
+      <c r="AY15" s="4">
+        <v>605</v>
       </c>
     </row>
   </sheetData>

--- a/amazon_forecasts.xlsx
+++ b/amazon_forecasts.xlsx
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="18" documentId="11_F25DC773A252ABDACC104884C91A59425BDE58E8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BBD88F46-156A-4611-A36D-9FA910FFCD17}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -319,6 +319,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -587,7 +591,7 @@
   <dimension ref="A1:AY15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
